--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H2">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I2">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J2">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N2">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O2">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P2">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q2">
-        <v>0.6590418788</v>
+        <v>0.76635571724325</v>
       </c>
       <c r="R2">
-        <v>2.6361675152</v>
+        <v>3.065422868973</v>
       </c>
       <c r="S2">
-        <v>0.06720460165467787</v>
+        <v>0.1044722435019514</v>
       </c>
       <c r="T2">
-        <v>0.04185810564010166</v>
+        <v>0.07812929698388703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H3">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I3">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J3">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N3">
         <v>0.126061</v>
       </c>
       <c r="O3">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P3">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q3">
-        <v>0.4354726820599999</v>
+        <v>0.2961342126892501</v>
       </c>
       <c r="R3">
-        <v>1.74189072824</v>
+        <v>1.184536850757</v>
       </c>
       <c r="S3">
-        <v>0.04440653784039389</v>
+        <v>0.04037003297714027</v>
       </c>
       <c r="T3">
-        <v>0.02765842674859448</v>
+        <v>0.03019062470560797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.90892</v>
+        <v>5.277942</v>
       </c>
       <c r="H4">
-        <v>13.81784</v>
+        <v>15.833826</v>
       </c>
       <c r="I4">
-        <v>0.2006971010378393</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J4">
-        <v>0.1527467613647123</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N4">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O4">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P4">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q4">
-        <v>0.8736214191333334</v>
+        <v>0.860908870359</v>
       </c>
       <c r="R4">
-        <v>5.2417285148</v>
+        <v>5.165453222154</v>
       </c>
       <c r="S4">
-        <v>0.08908596154276752</v>
+        <v>0.1173620540871975</v>
       </c>
       <c r="T4">
-        <v>0.08323022897601616</v>
+        <v>0.1316533627170512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>15.833826</v>
       </c>
       <c r="I5">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J5">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N5">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O5">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P5">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q5">
-        <v>0.50346288738</v>
+        <v>0.332671323231</v>
       </c>
       <c r="R5">
-        <v>3.02077732428</v>
+        <v>1.996027939386</v>
       </c>
       <c r="S5">
-        <v>0.05133971585522685</v>
+        <v>0.0453508973766471</v>
       </c>
       <c r="T5">
-        <v>0.04796509160585072</v>
+        <v>0.05087332688839494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.277942</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H6">
-        <v>15.833826</v>
+        <v>15.823955</v>
       </c>
       <c r="I6">
-        <v>0.1533188485097317</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J6">
-        <v>0.1750321064299758</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,33 +809,33 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.06303049999999999</v>
+        <v>0.1631145</v>
       </c>
       <c r="N6">
-        <v>0.126061</v>
+        <v>0.326229</v>
       </c>
       <c r="O6">
-        <v>0.2212614811612127</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P6">
-        <v>0.1810737360418049</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q6">
-        <v>0.332671323231</v>
+        <v>0.8603721692825</v>
       </c>
       <c r="R6">
-        <v>1.996027939386</v>
+        <v>5.162233015695</v>
       </c>
       <c r="S6">
-        <v>0.03392355551119484</v>
+        <v>0.1172888891530941</v>
       </c>
       <c r="T6">
-        <v>0.03169371743854254</v>
+        <v>0.1315712884070657</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.277942</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H7">
-        <v>15.833826</v>
+        <v>15.823955</v>
       </c>
       <c r="I7">
-        <v>0.1533188485097317</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J7">
-        <v>0.1750321064299758</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.1264483333333333</v>
+        <v>0.0630305</v>
       </c>
       <c r="N7">
-        <v>0.379345</v>
+        <v>0.126061</v>
       </c>
       <c r="O7">
-        <v>0.4438826524254145</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P7">
-        <v>0.5448903023042693</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q7">
-        <v>0.66738696933</v>
+        <v>0.3324639318758334</v>
       </c>
       <c r="R7">
-        <v>6.00648272397</v>
+        <v>1.994783591255</v>
       </c>
       <c r="S7">
-        <v>0.06805557714331002</v>
+        <v>0.04532262507480388</v>
       </c>
       <c r="T7">
-        <v>0.09537329738558255</v>
+        <v>0.05084161183672548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.866044666666666</v>
+        <v>5.865133</v>
       </c>
       <c r="H8">
-        <v>17.598134</v>
+        <v>11.730266</v>
       </c>
       <c r="I8">
-        <v>0.1704026329959644</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J8">
-        <v>0.1945353235065849</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,33 +933,33 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09539</v>
+        <v>0.1631145</v>
       </c>
       <c r="N8">
-        <v>0.19078</v>
+        <v>0.326229</v>
       </c>
       <c r="O8">
-        <v>0.3348558664133727</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P8">
-        <v>0.2740359616539259</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q8">
-        <v>0.5595620007533333</v>
+        <v>0.9566882367285</v>
       </c>
       <c r="R8">
-        <v>3.35737200452</v>
+        <v>3.826752946914</v>
       </c>
       <c r="S8">
-        <v>0.05706032131098362</v>
+        <v>0.13041902627475</v>
       </c>
       <c r="T8">
-        <v>0.05330967445278457</v>
+        <v>0.09753353134394008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.866044666666666</v>
+        <v>5.865133</v>
       </c>
       <c r="H9">
-        <v>17.598134</v>
+        <v>11.730266</v>
       </c>
       <c r="I9">
-        <v>0.1704026329959644</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J9">
-        <v>0.1945353235065849</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,33 +995,33 @@
         <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.06303049999999999</v>
+        <v>0.0630305</v>
       </c>
       <c r="N9">
         <v>0.126061</v>
       </c>
       <c r="O9">
-        <v>0.2212614811612127</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P9">
-        <v>0.1810737360418049</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q9">
-        <v>0.3697397283623333</v>
+        <v>0.3696822655565</v>
       </c>
       <c r="R9">
-        <v>2.218438370173999</v>
+        <v>1.478729062226</v>
       </c>
       <c r="S9">
-        <v>0.03770353897045763</v>
+        <v>0.0503963561523386</v>
       </c>
       <c r="T9">
-        <v>0.03522523781943848</v>
+        <v>0.0376887845493455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.866044666666666</v>
+        <v>5.310348</v>
       </c>
       <c r="H10">
-        <v>17.598134</v>
+        <v>15.931044</v>
       </c>
       <c r="I10">
-        <v>0.1704026329959644</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J10">
-        <v>0.1945353235065849</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1264483333333333</v>
+        <v>0.1631145</v>
       </c>
       <c r="N10">
-        <v>0.379345</v>
+        <v>0.326229</v>
       </c>
       <c r="O10">
-        <v>0.4438826524254145</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P10">
-        <v>0.5448903023042693</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q10">
-        <v>0.7417515713588888</v>
+        <v>0.8661947588460001</v>
       </c>
       <c r="R10">
-        <v>6.675764142229999</v>
+        <v>5.197168553076</v>
       </c>
       <c r="S10">
-        <v>0.07563877271452313</v>
+        <v>0.1180826445606718</v>
       </c>
       <c r="T10">
-        <v>0.1060004112343619</v>
+        <v>0.1324617002986708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.9025095</v>
+        <v>5.310348</v>
       </c>
       <c r="H11">
-        <v>11.805019</v>
+        <v>15.931044</v>
       </c>
       <c r="I11">
-        <v>0.1714618993270014</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J11">
-        <v>0.1304964032076572</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.09539</v>
+        <v>0.0630305</v>
       </c>
       <c r="N11">
-        <v>0.19078</v>
+        <v>0.126061</v>
       </c>
       <c r="O11">
-        <v>0.3348558664133727</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P11">
-        <v>0.2740359616539259</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q11">
-        <v>0.563040381205</v>
+        <v>0.3347138896140001</v>
       </c>
       <c r="R11">
-        <v>2.25216152482</v>
+        <v>2.008283337684</v>
       </c>
       <c r="S11">
-        <v>0.05741502285602552</v>
+        <v>0.0456293470413815</v>
       </c>
       <c r="T11">
-        <v>0.0357607073453888</v>
+        <v>0.05118568368033113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.9025095</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H12">
-        <v>11.805019</v>
+        <v>18.032376</v>
       </c>
       <c r="I12">
-        <v>0.1714618993270014</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J12">
-        <v>0.1304964032076572</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.06303049999999999</v>
+        <v>0.1631145</v>
       </c>
       <c r="N12">
-        <v>0.126061</v>
+        <v>0.326229</v>
       </c>
       <c r="O12">
-        <v>0.2212614811612127</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="P12">
-        <v>0.1810737360418049</v>
+        <v>0.7212828052797984</v>
       </c>
       <c r="Q12">
-        <v>0.3720381250397499</v>
+        <v>0.9804473316839999</v>
       </c>
       <c r="R12">
-        <v>1.488152500159</v>
+        <v>5.882683990104</v>
       </c>
       <c r="S12">
-        <v>0.03793791380780707</v>
+        <v>0.1336579477021335</v>
       </c>
       <c r="T12">
-        <v>0.02362947126882827</v>
+        <v>0.1499336255291834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,427 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.9025095</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H13">
-        <v>11.805019</v>
+        <v>18.032376</v>
       </c>
       <c r="I13">
-        <v>0.1714618993270014</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J13">
-        <v>0.1304964032076572</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.1264483333333333</v>
+        <v>0.0630305</v>
       </c>
       <c r="N13">
-        <v>0.379345</v>
+        <v>0.126061</v>
       </c>
       <c r="O13">
-        <v>0.4438826524254145</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="P13">
-        <v>0.5448903023042693</v>
+        <v>0.2787171947202017</v>
       </c>
       <c r="Q13">
-        <v>0.7463624887591667</v>
+        <v>0.378863225156</v>
       </c>
       <c r="R13">
-        <v>4.478174932555</v>
+        <v>2.273179350936</v>
       </c>
       <c r="S13">
-        <v>0.07610896266316876</v>
+        <v>0.0516479360978903</v>
       </c>
       <c r="T13">
-        <v>0.07110622459344017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3.426464</v>
-      </c>
-      <c r="H14">
-        <v>10.279392</v>
-      </c>
-      <c r="I14">
-        <v>0.09953529518514022</v>
-      </c>
-      <c r="J14">
-        <v>0.1136316411825823</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.09539</v>
-      </c>
-      <c r="N14">
-        <v>0.19078</v>
-      </c>
-      <c r="O14">
-        <v>0.3348558664133727</v>
-      </c>
-      <c r="P14">
-        <v>0.2740359616539259</v>
-      </c>
-      <c r="Q14">
-        <v>0.32685040096</v>
-      </c>
-      <c r="R14">
-        <v>1.96110240576</v>
-      </c>
-      <c r="S14">
-        <v>0.03332997750793093</v>
-      </c>
-      <c r="T14">
-        <v>0.03113915606578277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>3.426464</v>
-      </c>
-      <c r="H15">
-        <v>10.279392</v>
-      </c>
-      <c r="I15">
-        <v>0.09953529518514022</v>
-      </c>
-      <c r="J15">
-        <v>0.1136316411825823</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N15">
-        <v>0.126061</v>
-      </c>
-      <c r="O15">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P15">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q15">
-        <v>0.2159717391519999</v>
-      </c>
-      <c r="R15">
-        <v>1.295830434912</v>
-      </c>
-      <c r="S15">
-        <v>0.02202332684048265</v>
-      </c>
-      <c r="T15">
-        <v>0.02057570580149199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.426464</v>
-      </c>
-      <c r="H16">
-        <v>10.279392</v>
-      </c>
-      <c r="I16">
-        <v>0.09953529518514022</v>
-      </c>
-      <c r="J16">
-        <v>0.1136316411825823</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.379345</v>
-      </c>
-      <c r="O16">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P16">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q16">
-        <v>0.4332706620266666</v>
-      </c>
-      <c r="R16">
-        <v>3.89943595824</v>
-      </c>
-      <c r="S16">
-        <v>0.04418199083672662</v>
-      </c>
-      <c r="T16">
-        <v>0.0619167793153075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>7.042732666666666</v>
-      </c>
-      <c r="H17">
-        <v>21.128198</v>
-      </c>
-      <c r="I17">
-        <v>0.2045842229443229</v>
-      </c>
-      <c r="J17">
-        <v>0.2335577643084875</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.09539</v>
-      </c>
-      <c r="N17">
-        <v>0.19078</v>
-      </c>
-      <c r="O17">
-        <v>0.3348558664133727</v>
-      </c>
-      <c r="P17">
-        <v>0.2740359616539259</v>
-      </c>
-      <c r="Q17">
-        <v>0.6718062690733333</v>
-      </c>
-      <c r="R17">
-        <v>4.030837614439999</v>
-      </c>
-      <c r="S17">
-        <v>0.06850622722852784</v>
-      </c>
-      <c r="T17">
-        <v>0.06400322654401734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>7.042732666666666</v>
-      </c>
-      <c r="H18">
-        <v>21.128198</v>
-      </c>
-      <c r="I18">
-        <v>0.2045842229443229</v>
-      </c>
-      <c r="J18">
-        <v>0.2335577643084875</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>0.06303049999999999</v>
-      </c>
-      <c r="N18">
-        <v>0.126061</v>
-      </c>
-      <c r="O18">
-        <v>0.2212614811612127</v>
-      </c>
-      <c r="P18">
-        <v>0.1810737360418049</v>
-      </c>
-      <c r="Q18">
-        <v>0.4439069613463332</v>
-      </c>
-      <c r="R18">
-        <v>2.663441768077999</v>
-      </c>
-      <c r="S18">
-        <v>0.04526660819087665</v>
-      </c>
-      <c r="T18">
-        <v>0.04229117696490915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.042732666666666</v>
-      </c>
-      <c r="H19">
-        <v>21.128198</v>
-      </c>
-      <c r="I19">
-        <v>0.2045842229443229</v>
-      </c>
-      <c r="J19">
-        <v>0.2335577643084875</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.1264483333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.379345</v>
-      </c>
-      <c r="O19">
-        <v>0.4438826524254145</v>
-      </c>
-      <c r="P19">
-        <v>0.5448903023042693</v>
-      </c>
-      <c r="Q19">
-        <v>0.8905418078122221</v>
-      </c>
-      <c r="R19">
-        <v>8.014876270309999</v>
-      </c>
-      <c r="S19">
-        <v>0.09081138752491838</v>
-      </c>
-      <c r="T19">
-        <v>0.127263360799561</v>
+        <v>0.05793716305979663</v>
       </c>
     </row>
   </sheetData>
